--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="143">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -480,12 +480,20 @@
     <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>JSP2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,14 +510,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,12 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,11 +573,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -881,16 +882,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" bestFit="1" customWidth="1"/>
@@ -899,7 +900,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -918,8 +919,11 @@
       <c r="J1" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -935,11 +939,14 @@
       <c r="I2" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K2" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,8 +977,9 @@
       <c r="J3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -981,7 +989,7 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1000,8 +1008,9 @@
       <c r="J4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1011,7 +1020,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1030,8 +1039,9 @@
       <c r="J5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1041,7 +1051,7 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1062,8 +1072,9 @@
       <c r="J6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1086,8 +1097,9 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1118,8 +1130,9 @@
       <c r="J8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1150,8 +1163,9 @@
       <c r="J9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1161,7 +1175,7 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
@@ -1176,8 +1190,9 @@
       <c r="J10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1206,8 +1221,9 @@
       <c r="J11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1238,8 +1254,9 @@
       <c r="J12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1270,8 +1287,9 @@
       <c r="J13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1302,8 +1320,9 @@
       <c r="J14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1334,8 +1353,9 @@
       <c r="J15" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1366,8 +1386,9 @@
       <c r="J16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1398,8 +1419,9 @@
       <c r="J17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1430,8 +1452,9 @@
       <c r="J18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1462,8 +1485,9 @@
       <c r="J19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1473,7 +1497,7 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1488,8 +1512,9 @@
       <c r="J20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1520,8 +1545,9 @@
       <c r="J21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1550,8 +1576,9 @@
       <c r="J22" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1582,8 +1609,9 @@
       <c r="J23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1612,8 +1640,9 @@
       <c r="J24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1644,8 +1673,9 @@
       <c r="J25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1676,8 +1706,9 @@
       <c r="J26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1690,18 +1721,23 @@
       <c r="D27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>134</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1711,7 +1747,7 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1730,8 +1766,9 @@
       <c r="J28" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1758,8 +1795,9 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1769,7 +1807,7 @@
       <c r="C30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>57</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1786,8 +1824,9 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1797,7 +1836,7 @@
       <c r="C31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1816,8 +1855,9 @@
       <c r="J31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1844,8 +1884,9 @@
       <c r="J32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1872,8 +1913,9 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1904,8 +1946,9 @@
       <c r="J34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1932,8 +1975,9 @@
       <c r="J35" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1964,8 +2008,9 @@
       <c r="J36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1975,7 +2020,7 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1994,8 +2039,9 @@
       <c r="J37" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2026,11 +2072,12 @@
       <c r="J38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" ref="F39:I39" si="0">COUNTIF(F3:F38,"〇")</f>
@@ -2042,21 +2089,25 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" ref="J39" si="1">COUNTIF(J3:J38,"〇")</f>
+        <f t="shared" ref="J39:K39" si="1">COUNTIF(J3:J38,"〇")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="K39" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
-        <v>0.91666666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
         <f t="shared" ref="F40:I40" si="2">F39/COUNTA($A$3:$A$256)</f>
@@ -2068,15 +2119,19 @@
       </c>
       <c r="H40" s="6">
         <f t="shared" si="2"/>
-        <v>0.86111111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="2"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40" si="3">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="3">J39/COUNTA($A$3:$A$256)</f>
         <v>0.86111111111111116</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2149,7 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.75" bestFit="1" customWidth="1"/>
@@ -2103,7 +2158,7 @@
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2120,7 +2175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2137,7 +2192,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2154,7 +2209,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2171,7 +2226,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2188,7 +2243,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2205,7 +2260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2222,7 +2277,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2239,7 +2294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2256,7 +2311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2273,7 +2328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2290,7 +2345,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2307,7 +2362,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2324,7 +2379,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2341,7 +2396,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2358,7 +2413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2375,7 +2430,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2392,7 +2447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>18</v>
       </c>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -516,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,6 +526,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -577,7 +583,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -885,10 +892,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -956,7 +963,7 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -977,7 +984,9 @@
       <c r="J3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
@@ -1008,7 +1017,9 @@
       <c r="J4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
@@ -1039,7 +1050,9 @@
       <c r="J5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
@@ -1072,7 +1085,9 @@
       <c r="J6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
@@ -1084,11 +1099,13 @@
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>134</v>
       </c>
@@ -1096,8 +1113,12 @@
         <v>134</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
@@ -1109,7 +1130,7 @@
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1142,7 +1163,7 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1163,7 +1184,9 @@
       <c r="J9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
@@ -1175,7 +1198,7 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
@@ -1202,7 +1225,7 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1221,7 +1244,9 @@
       <c r="J11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
@@ -1233,7 +1258,7 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1254,7 +1279,9 @@
       <c r="J12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
@@ -1266,7 +1293,7 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1287,7 +1314,9 @@
       <c r="J13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
@@ -1299,7 +1328,7 @@
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1320,7 +1349,9 @@
       <c r="J14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
@@ -1332,7 +1363,7 @@
       <c r="C15" s="2">
         <v>1901335</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1353,7 +1384,9 @@
       <c r="J15" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
@@ -1365,7 +1398,7 @@
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1386,7 +1419,9 @@
       <c r="J16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
@@ -1398,7 +1433,7 @@
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1419,7 +1454,9 @@
       <c r="J17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
@@ -1431,7 +1468,7 @@
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1452,7 +1489,9 @@
       <c r="J18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
@@ -1464,7 +1503,7 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1485,7 +1524,9 @@
       <c r="J19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
@@ -1512,7 +1553,9 @@
       <c r="J20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
@@ -1524,7 +1567,7 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1545,7 +1588,9 @@
       <c r="J21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
@@ -1557,7 +1602,7 @@
       <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1576,7 +1621,9 @@
       <c r="J22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
@@ -1588,7 +1635,7 @@
       <c r="C23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1609,7 +1656,9 @@
       <c r="J23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
@@ -1621,7 +1670,7 @@
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1640,7 +1689,9 @@
       <c r="J24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
@@ -1652,7 +1703,7 @@
       <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1673,7 +1724,9 @@
       <c r="J25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
@@ -1685,7 +1738,7 @@
       <c r="C26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1706,7 +1759,9 @@
       <c r="J26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
@@ -1718,7 +1773,7 @@
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1734,8 +1789,12 @@
         <v>134</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
@@ -1747,7 +1806,7 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1778,7 +1837,7 @@
       <c r="C29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1795,7 +1854,9 @@
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
@@ -1823,8 +1884,12 @@
         <v>134</v>
       </c>
       <c r="I30" s="3"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
@@ -1855,7 +1920,9 @@
       <c r="J31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
@@ -1867,7 +1934,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1884,7 +1951,9 @@
       <c r="J32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
@@ -1896,7 +1965,7 @@
       <c r="C33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1925,7 +1994,7 @@
       <c r="C34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1946,7 +2015,9 @@
       <c r="J34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
@@ -1987,7 +2058,7 @@
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -2008,7 +2079,9 @@
       <c r="J36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
@@ -2039,7 +2112,9 @@
       <c r="J37" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
@@ -2051,7 +2126,7 @@
       <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -2072,7 +2147,9 @@
       <c r="J38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="E39" s="4">
@@ -2081,7 +2158,7 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" ref="F39:I39" si="0">COUNTIF(F3:F38,"〇")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="0"/>
@@ -2097,11 +2174,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ref="J39:K39" si="1">COUNTIF(J3:J38,"〇")</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2111,7 +2188,7 @@
       </c>
       <c r="F40" s="6">
         <f t="shared" ref="F40:I40" si="2">F39/COUNTA($A$3:$A$256)</f>
-        <v>0.94444444444444442</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="2"/>
@@ -2127,11 +2204,11 @@
       </c>
       <c r="J40" s="6">
         <f t="shared" ref="J40:K40" si="3">J39/COUNTA($A$3:$A$256)</f>
-        <v>0.86111111111111116</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.86111111111111116</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="145">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -486,6 +486,14 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSP3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -583,8 +591,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -889,13 +897,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -907,7 +915,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -929,8 +937,11 @@
       <c r="K1" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -952,8 +963,11 @@
       <c r="K2" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -987,8 +1001,9 @@
       <c r="K3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1020,8 +1035,9 @@
       <c r="K4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1053,8 +1069,9 @@
       <c r="K5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1088,8 +1105,9 @@
       <c r="K6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1119,8 +1137,9 @@
       <c r="K7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1151,9 +1170,12 @@
       <c r="J8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1187,8 +1209,9 @@
       <c r="K9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,7 +1221,7 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
@@ -1214,8 +1237,9 @@
         <v>134</v>
       </c>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1247,8 +1271,9 @@
       <c r="K11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1282,8 +1307,9 @@
       <c r="K12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1317,8 +1343,9 @@
       <c r="K13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1352,8 +1379,9 @@
       <c r="K14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1387,8 +1415,9 @@
       <c r="K15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1422,8 +1451,9 @@
       <c r="K16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1457,8 +1487,9 @@
       <c r="K17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1492,8 +1523,9 @@
       <c r="K18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1527,8 +1559,9 @@
       <c r="K19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1538,7 +1571,7 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1556,8 +1589,9 @@
       <c r="K20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1591,8 +1625,9 @@
       <c r="K21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1624,8 +1659,9 @@
       <c r="K22" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1659,8 +1695,9 @@
       <c r="K23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1692,8 +1729,9 @@
       <c r="K24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1727,8 +1765,9 @@
       <c r="K25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1762,8 +1801,9 @@
       <c r="K26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1795,8 +1835,9 @@
       <c r="K27" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1806,7 +1847,7 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1825,9 +1866,12 @@
       <c r="J28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="K28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1857,8 +1901,9 @@
       <c r="K29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1890,8 +1935,9 @@
       <c r="K30" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1923,8 +1969,9 @@
       <c r="K31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1954,8 +2001,9 @@
       <c r="K32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1983,8 +2031,9 @@
       <c r="I33" s="3"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2018,8 +2067,9 @@
       <c r="K34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2047,8 +2097,9 @@
         <v>134</v>
       </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2082,8 +2133,9 @@
       <c r="K36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2115,8 +2167,9 @@
       <c r="K37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2150,8 +2203,9 @@
       <c r="K38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -2178,37 +2232,45 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>33</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" ref="L39" si="2">COUNTIF(L3:L38,"〇")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="2">F39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="F40:I40" si="3">F39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:K40" si="3">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="4">J39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="3"/>
-        <v>0.86111111111111116</v>
+        <f t="shared" si="4"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="L40" s="6">
+        <f t="shared" ref="L40" si="5">L39/COUNTA($A$3:$A$256)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="145">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -524,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,12 +534,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,8 +585,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -900,10 +894,10 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1001,7 +995,9 @@
       <c r="K3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -1013,7 +1009,7 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1069,7 +1065,9 @@
       <c r="K5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -1105,7 +1103,9 @@
       <c r="K6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -1137,7 +1137,9 @@
       <c r="K7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1">
@@ -1173,7 +1175,9 @@
       <c r="K8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1">
@@ -1209,7 +1213,9 @@
       <c r="K9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1">
@@ -1221,7 +1227,7 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
@@ -1236,8 +1242,12 @@
       <c r="J10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1">
@@ -1249,7 +1259,7 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1307,7 +1317,9 @@
       <c r="K12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1">
@@ -1343,7 +1355,9 @@
       <c r="K13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1">
@@ -1379,7 +1393,9 @@
       <c r="K14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -1415,7 +1431,9 @@
       <c r="K15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1">
@@ -1451,7 +1469,9 @@
       <c r="K16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
@@ -1487,7 +1507,9 @@
       <c r="K17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
@@ -1523,7 +1545,9 @@
       <c r="K18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
@@ -1559,7 +1583,9 @@
       <c r="K19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
@@ -1571,7 +1597,7 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1601,7 +1627,7 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1659,7 +1685,9 @@
       <c r="K22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
@@ -1695,7 +1723,9 @@
       <c r="K23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
@@ -1729,7 +1759,9 @@
       <c r="K24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
@@ -1765,7 +1797,9 @@
       <c r="K25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
@@ -1801,7 +1835,9 @@
       <c r="K26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
@@ -1813,7 +1849,7 @@
       <c r="C27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1847,7 +1883,7 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1881,7 +1917,7 @@
       <c r="C29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1901,7 +1937,9 @@
       <c r="K29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1">
@@ -1935,7 +1973,9 @@
       <c r="K30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1">
@@ -1969,7 +2009,9 @@
       <c r="K31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1">
@@ -1981,7 +2023,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2067,7 +2109,9 @@
       <c r="K34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1">
@@ -2091,7 +2135,9 @@
       <c r="G35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3" t="s">
         <v>134</v>
@@ -2133,7 +2179,9 @@
       <c r="K36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1">
@@ -2167,7 +2215,9 @@
       <c r="K37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1">
@@ -2203,7 +2253,9 @@
       <c r="K38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="E39" s="4">
@@ -2220,7 +2272,7 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
@@ -2232,11 +2284,11 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" ref="L39" si="2">COUNTIF(L3:L38,"〇")</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2254,7 +2306,7 @@
       </c>
       <c r="H40" s="6">
         <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="3"/>
@@ -2266,11 +2318,11 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
-        <v>0.91666666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="L40" s="6">
         <f t="shared" ref="L40" si="5">L39/COUNTA($A$3:$A$256)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="145">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -501,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,8 +523,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +540,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -587,6 +599,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -894,10 +908,10 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O33" sqref="O33"/>
+      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1883,7 +1897,7 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="12" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1905,7 +1919,9 @@
       <c r="K28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1">
@@ -2023,7 +2039,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2035,7 +2051,9 @@
       <c r="G32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
         <v>134</v>
@@ -2043,7 +2061,9 @@
       <c r="K32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1">
@@ -2123,7 +2143,7 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2143,7 +2163,9 @@
         <v>134</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1">
@@ -2272,7 +2294,7 @@
       </c>
       <c r="H39" s="4">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
@@ -2288,7 +2310,7 @@
       </c>
       <c r="L39" s="4">
         <f t="shared" ref="L39" si="2">COUNTIF(L3:L38,"〇")</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2306,7 +2328,7 @@
       </c>
       <c r="H40" s="6">
         <f t="shared" si="3"/>
-        <v>0.91666666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="3"/>
@@ -2322,7 +2344,7 @@
       </c>
       <c r="L40" s="6">
         <f t="shared" ref="L40" si="5">L39/COUNTA($A$3:$A$256)</f>
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="146">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -494,6 +494,10 @@
   </si>
   <si>
     <t>JSP3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -597,7 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -905,13 +908,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N38" sqref="N38"/>
+      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -923,7 +926,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -948,8 +951,11 @@
       <c r="L1" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -974,8 +980,11 @@
       <c r="L2" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1012,8 +1021,11 @@
       <c r="L3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1023,7 +1035,7 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1045,9 +1057,14 @@
       <c r="K4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1082,8 +1099,11 @@
       <c r="L5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1120,8 +1140,11 @@
       <c r="L6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1154,8 +1177,11 @@
       <c r="L7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1192,8 +1218,11 @@
       <c r="L8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1230,8 +1259,11 @@
       <c r="L9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1241,7 +1273,7 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="3"/>
@@ -1262,8 +1294,11 @@
       <c r="L10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1273,7 +1308,7 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -1295,9 +1330,14 @@
       <c r="K11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1334,8 +1374,11 @@
       <c r="L12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1372,8 +1415,11 @@
       <c r="L13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1410,8 +1456,11 @@
       <c r="L14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1448,8 +1497,11 @@
       <c r="L15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1486,8 +1538,11 @@
       <c r="L16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1524,8 +1579,11 @@
       <c r="L17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1562,8 +1620,11 @@
       <c r="L18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1600,8 +1661,11 @@
       <c r="L19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1629,9 +1693,14 @@
       <c r="K20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1641,7 +1710,7 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1665,9 +1734,14 @@
       <c r="K21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="L21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1702,8 +1776,11 @@
       <c r="L22" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1740,8 +1817,11 @@
       <c r="L23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1776,8 +1856,11 @@
       <c r="L24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1814,8 +1897,11 @@
       <c r="L25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1852,8 +1938,11 @@
       <c r="L26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1886,8 +1975,9 @@
         <v>134</v>
       </c>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1897,7 +1987,7 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1922,8 +2012,11 @@
       <c r="L28" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1956,8 +2049,11 @@
       <c r="L29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1992,8 +2088,11 @@
       <c r="L30" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2028,8 +2127,11 @@
       <c r="L31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2039,7 +2141,7 @@
       <c r="C32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2064,8 +2166,11 @@
       <c r="L32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2092,10 +2197,15 @@
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="K33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2132,8 +2242,11 @@
       <c r="L34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2143,7 +2256,7 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>68</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2166,8 +2279,9 @@
       <c r="L35" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2204,8 +2318,11 @@
       <c r="L36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2240,8 +2357,11 @@
       <c r="L37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2278,8 +2398,11 @@
       <c r="L38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -2306,14 +2429,18 @@
       </c>
       <c r="K39" s="4">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L39" s="4">
-        <f t="shared" ref="L39" si="2">COUNTIF(L3:L38,"〇")</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <f t="shared" ref="L39:M39" si="2">COUNTIF(L3:L38,"〇")</f>
+        <v>35</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -2340,11 +2467,15 @@
       </c>
       <c r="K40" s="6">
         <f t="shared" si="4"/>
-        <v>0.94444444444444442</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40" si="5">L39/COUNTA($A$3:$A$256)</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="L40:M40" si="5">L39/COUNTA($A$3:$A$256)</f>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="5"/>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="147">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -498,6 +498,10 @@
   </si>
   <si>
     <t>S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -908,13 +912,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O34" sqref="O34"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -926,7 +930,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -954,8 +958,11 @@
       <c r="M1" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -983,8 +990,11 @@
       <c r="M2" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1024,8 +1034,9 @@
       <c r="M3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1063,8 +1074,11 @@
       <c r="M4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1102,8 +1116,11 @@
       <c r="M5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1143,8 +1160,11 @@
       <c r="M6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1180,8 +1200,11 @@
       <c r="M7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1221,8 +1244,11 @@
       <c r="M8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1262,8 +1288,11 @@
       <c r="M9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1297,8 +1326,11 @@
       <c r="M10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1336,8 +1368,11 @@
       <c r="M11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1377,8 +1412,11 @@
       <c r="M12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1418,8 +1456,11 @@
       <c r="M13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1459,8 +1500,11 @@
       <c r="M14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1500,8 +1544,11 @@
       <c r="M15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1541,8 +1588,11 @@
       <c r="M16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1582,8 +1632,9 @@
       <c r="M17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1623,8 +1674,9 @@
       <c r="M18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1664,8 +1716,11 @@
       <c r="M19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1699,8 +1754,11 @@
       <c r="M20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1740,8 +1798,11 @@
       <c r="M21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1779,8 +1840,11 @@
       <c r="M22" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1820,8 +1884,11 @@
       <c r="M23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1859,8 +1926,11 @@
       <c r="M24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1900,8 +1970,11 @@
       <c r="M25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1941,8 +2014,11 @@
       <c r="M26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1976,8 +2052,9 @@
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2015,8 +2092,11 @@
       <c r="M28" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2052,8 +2132,11 @@
       <c r="M29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2091,8 +2174,11 @@
       <c r="M30" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2130,8 +2216,11 @@
       <c r="M31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2169,8 +2258,11 @@
       <c r="M32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2204,8 +2296,9 @@
         <v>134</v>
       </c>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2245,8 +2338,11 @@
       <c r="M34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2280,8 +2376,9 @@
         <v>134</v>
       </c>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2321,8 +2418,11 @@
       <c r="M36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2360,8 +2460,11 @@
       <c r="M37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2401,8 +2504,11 @@
       <c r="M38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -2439,43 +2545,51 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="4">
+        <f t="shared" ref="N39" si="3">COUNTIF(N3:N38,"〇")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="3">F39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="F40:I40" si="4">F39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:K40" si="4">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="5">J39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:M40" si="5">L39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="L40:M40" si="6">L39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91666666666666663</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" ref="N40" si="7">N39/COUNTA($A$3:$A$256)</f>
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="150">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -502,6 +502,18 @@
   </si>
   <si>
     <t>S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -912,13 +924,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -930,7 +942,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -961,8 +973,11 @@
       <c r="N1" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -993,8 +1008,11 @@
       <c r="N2" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1035,8 +1053,9 @@
         <v>134</v>
       </c>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1077,8 +1096,9 @@
       <c r="N4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1119,8 +1139,9 @@
       <c r="N5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1163,8 +1184,9 @@
       <c r="N6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1203,8 +1225,11 @@
       <c r="N7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1247,8 +1272,11 @@
       <c r="N8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1291,8 +1319,11 @@
       <c r="N9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1329,8 +1360,11 @@
       <c r="N10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1371,8 +1405,9 @@
       <c r="N11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1415,8 +1450,9 @@
       <c r="N12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1459,8 +1495,11 @@
       <c r="N13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1503,8 +1542,9 @@
       <c r="N14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1547,8 +1587,9 @@
       <c r="N15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1591,8 +1632,9 @@
       <c r="N16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1632,9 +1674,14 @@
       <c r="M17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1674,9 +1721,14 @@
       <c r="M18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1719,8 +1771,11 @@
       <c r="N19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1757,8 +1812,11 @@
       <c r="N20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1801,8 +1859,9 @@
       <c r="N21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1843,8 +1902,11 @@
       <c r="N22" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1887,8 +1949,11 @@
       <c r="N23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1929,8 +1994,11 @@
       <c r="N24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1973,8 +2041,9 @@
       <c r="N25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2017,8 +2086,9 @@
       <c r="N26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2053,8 +2123,9 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2095,8 +2166,11 @@
       <c r="N28" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2135,8 +2209,11 @@
       <c r="N29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2177,8 +2254,11 @@
       <c r="N30" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2219,8 +2299,9 @@
       <c r="N31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2261,8 +2342,9 @@
       <c r="N32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2297,8 +2379,9 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2341,8 +2424,9 @@
       <c r="N34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2377,8 +2461,9 @@
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2421,8 +2506,9 @@
       <c r="N36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2463,8 +2549,9 @@
       <c r="N37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2507,8 +2594,11 @@
       <c r="N38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -2546,11 +2636,15 @@
         <v>33</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" ref="N39" si="3">COUNTIF(N3:N38,"〇")</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <f t="shared" ref="N39:O39" si="3">COUNTIF(N3:N38,"〇")</f>
+        <v>31</v>
+      </c>
+      <c r="O39" s="4">
+        <f>COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -2588,8 +2682,12 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" ref="N40" si="7">N39/COUNTA($A$3:$A$256)</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="N40:O40" si="7">N39/COUNTA($A$3:$A$256)</f>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="7"/>
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="152">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -514,6 +514,14 @@
   </si>
   <si>
     <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -927,10 +935,10 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R37" sqref="R37"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1053,7 +1061,9 @@
         <v>134</v>
       </c>
       <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
@@ -1096,7 +1106,9 @@
       <c r="N4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
@@ -1184,7 +1196,9 @@
       <c r="N6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
@@ -1450,7 +1464,9 @@
       <c r="N12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
@@ -1542,7 +1558,9 @@
       <c r="N14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
@@ -1859,7 +1877,9 @@
       <c r="N21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
@@ -2041,7 +2061,9 @@
       <c r="N25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1">
@@ -2379,7 +2401,9 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="3" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1">
@@ -2424,7 +2448,9 @@
       <c r="N34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1">
@@ -2506,7 +2532,9 @@
       <c r="N36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1">
@@ -2549,7 +2577,9 @@
       <c r="N37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O37" s="3"/>
+      <c r="O37" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1">
@@ -2636,12 +2666,12 @@
         <v>33</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" ref="N39:O39" si="3">COUNTIF(N3:N38,"〇")</f>
+        <f t="shared" ref="N39" si="3">COUNTIF(N3:N38,"〇")</f>
         <v>31</v>
       </c>
       <c r="O39" s="4">
         <f>COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2687,7 +2717,7 @@
       </c>
       <c r="O40" s="6">
         <f t="shared" si="7"/>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="153">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -522,6 +522,13 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎遅</t>
+    <rPh sb="1" eb="2">
+      <t>オク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -935,10 +942,10 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1650,7 +1657,9 @@
       <c r="N16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
@@ -1790,7 +1799,7 @@
         <v>134</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2108,7 +2117,9 @@
       <c r="N26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1">
@@ -2364,7 +2375,9 @@
       <c r="N32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1">
@@ -2671,7 +2684,7 @@
       </c>
       <c r="O39" s="4">
         <f>COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2717,7 +2730,7 @@
       </c>
       <c r="O40" s="6">
         <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="154">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -525,10 +525,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>◎遅</t>
-    <rPh sb="1" eb="2">
-      <t>オク</t>
-    </rPh>
+    <t>S4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -939,13 +940,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -957,7 +958,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -991,8 +992,11 @@
       <c r="O1" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1026,8 +1030,11 @@
       <c r="O2" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1071,8 +1078,11 @@
       <c r="O3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1116,8 +1126,11 @@
       <c r="O4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1158,9 +1171,14 @@
       <c r="N5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1206,8 +1224,11 @@
       <c r="O6" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1249,8 +1270,11 @@
       <c r="O7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1296,8 +1320,11 @@
       <c r="O8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1343,8 +1370,11 @@
       <c r="O9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1384,8 +1414,9 @@
       <c r="O10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1426,9 +1457,14 @@
       <c r="N11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1474,8 +1510,11 @@
       <c r="O12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1521,8 +1560,11 @@
       <c r="O13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1568,8 +1610,11 @@
       <c r="O14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1613,8 +1658,11 @@
         <v>134</v>
       </c>
       <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1658,10 +1706,13 @@
         <v>134</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>153</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1707,8 +1758,11 @@
       <c r="O17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1754,8 +1808,11 @@
       <c r="O18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1801,8 +1858,11 @@
       <c r="O19" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1842,8 +1902,11 @@
       <c r="O20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1889,8 +1952,11 @@
       <c r="O21" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1934,8 +2000,11 @@
       <c r="O22" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1981,8 +2050,11 @@
       <c r="O23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2026,8 +2098,11 @@
       <c r="O24" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2071,10 +2146,13 @@
         <v>134</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>134</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2120,8 +2198,11 @@
       <c r="O26" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2157,8 +2238,9 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2202,8 +2284,11 @@
       <c r="O28" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2245,8 +2330,11 @@
       <c r="O29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2290,8 +2378,11 @@
       <c r="O30" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2332,9 +2423,14 @@
       <c r="N31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="O31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2378,8 +2474,11 @@
       <c r="O32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2417,8 +2516,9 @@
       <c r="O33" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2464,8 +2564,11 @@
       <c r="O34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2498,11 +2601,18 @@
       <c r="L35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="M35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2548,8 +2658,11 @@
       <c r="O36" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2593,8 +2706,11 @@
       <c r="O37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2640,8 +2756,11 @@
       <c r="O38" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -2676,18 +2795,22 @@
       </c>
       <c r="M39" s="4">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N39" s="4">
         <f t="shared" ref="N39" si="3">COUNTIF(N3:N38,"〇")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O39" s="4">
         <f>COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P39" s="4">
+        <f>COUNTIF(P3:P38,"〇")+COUNTIF(P3:P38,"◎")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -2722,15 +2845,19 @@
       </c>
       <c r="M40" s="6">
         <f t="shared" si="6"/>
-        <v>0.91666666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="N40" s="6">
         <f t="shared" ref="N40:O40" si="7">N39/COUNTA($A$3:$A$256)</f>
-        <v>0.86111111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="7"/>
-        <v>0.72222222222222221</v>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" ref="P40" si="8">P39/COUNTA($A$3:$A$256)</f>
+        <v>0.88888888888888884</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="154">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -946,7 +946,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1657,7 +1657,9 @@
       <c r="N15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="P15" s="3" t="s">
         <v>134</v>
       </c>
@@ -2803,7 +2805,7 @@
       </c>
       <c r="O39" s="4">
         <f>COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P39" s="4">
         <f>COUNTIF(P3:P38,"〇")+COUNTIF(P3:P38,"◎")</f>
@@ -2853,7 +2855,7 @@
       </c>
       <c r="O40" s="6">
         <f t="shared" si="7"/>
-        <v>0.88888888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="P40" s="6">
         <f t="shared" ref="P40" si="8">P39/COUNTA($A$3:$A$256)</f>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="156">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -530,6 +530,14 @@
   </si>
   <si>
     <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S5Ex</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -940,13 +948,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -958,7 +966,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -995,8 +1003,12 @@
       <c r="P1" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1033,8 +1045,14 @@
       <c r="P2" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1081,8 +1099,10 @@
       <c r="P3" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1129,8 +1149,10 @@
       <c r="P4" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1177,8 +1199,10 @@
       <c r="P5" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1227,8 +1251,10 @@
       <c r="P6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1273,8 +1299,10 @@
       <c r="P7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1323,8 +1351,10 @@
       <c r="P8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1373,8 +1403,10 @@
       <c r="P9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1414,9 +1446,13 @@
       <c r="O10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1463,8 +1499,10 @@
       <c r="P11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1513,8 +1551,10 @@
       <c r="P12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1563,8 +1603,10 @@
       <c r="P13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1613,8 +1655,12 @@
       <c r="P14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1663,8 +1709,10 @@
       <c r="P15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1713,8 +1761,10 @@
       <c r="P16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1763,8 +1813,10 @@
       <c r="P17" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1813,8 +1865,10 @@
       <c r="P18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1863,8 +1917,10 @@
       <c r="P19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1907,8 +1963,10 @@
       <c r="P20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1957,8 +2015,10 @@
       <c r="P21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2005,8 +2065,10 @@
       <c r="P22" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2055,8 +2117,10 @@
       <c r="P23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2103,8 +2167,10 @@
       <c r="P24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2153,8 +2219,12 @@
       <c r="P25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2203,8 +2273,10 @@
       <c r="P26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2241,8 +2313,10 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2289,8 +2363,10 @@
       <c r="P28" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2335,8 +2411,10 @@
       <c r="P29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2383,8 +2461,10 @@
       <c r="P30" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2431,8 +2511,10 @@
       <c r="P31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2479,8 +2561,10 @@
       <c r="P32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2519,8 +2603,10 @@
         <v>150</v>
       </c>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2569,8 +2655,10 @@
       <c r="P34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2613,8 +2701,10 @@
         <v>134</v>
       </c>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2663,8 +2753,10 @@
       <c r="P36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2711,8 +2803,10 @@
       <c r="P37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2761,8 +2855,12 @@
       <c r="P38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -2809,10 +2907,18 @@
       </c>
       <c r="P39" s="4">
         <f>COUNTIF(P3:P38,"〇")+COUNTIF(P3:P38,"◎")</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>COUNTIF(Q3:Q38,"〇")+COUNTIF(Q3:Q38,"◎")</f>
+        <v>3</v>
+      </c>
+      <c r="R39" s="4">
+        <f>COUNTIF(R3:R38,"〇")+COUNTIF(R3:R38,"◎")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -2858,8 +2964,16 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" ref="P40" si="8">P39/COUNTA($A$3:$A$256)</f>
-        <v>0.88888888888888884</v>
+        <f t="shared" ref="P40:Q40" si="8">P39/COUNTA($A$3:$A$256)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="R40" s="6">
+        <f t="shared" ref="R40" si="9">R39/COUNTA($A$3:$A$256)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -10,12 +10,12 @@
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="156">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -951,10 +951,10 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P45" sqref="P45"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1199,7 +1199,9 @@
       <c r="P5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18">
@@ -1251,8 +1253,12 @@
       <c r="P6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
@@ -1299,7 +1305,9 @@
       <c r="P7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18">
@@ -1351,8 +1359,12 @@
       <c r="P8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
@@ -1403,7 +1415,9 @@
       <c r="P9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18">
@@ -1449,7 +1463,9 @@
       <c r="P10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18">
@@ -1551,7 +1567,9 @@
       <c r="P12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18">
@@ -1709,7 +1727,9 @@
       <c r="P15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18">
@@ -1761,7 +1781,9 @@
       <c r="P16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18">
@@ -1813,7 +1835,9 @@
       <c r="P17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18">
@@ -1865,7 +1889,9 @@
       <c r="P18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18">
@@ -1917,8 +1943,12 @@
       <c r="P19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1">
@@ -1963,7 +1993,9 @@
       <c r="P20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18">
@@ -2363,7 +2395,9 @@
       <c r="P28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18">
@@ -2411,7 +2445,9 @@
       <c r="P29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18">
@@ -2461,7 +2497,9 @@
       <c r="P30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18">
@@ -2561,7 +2599,9 @@
       <c r="P32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18">
@@ -2655,7 +2695,9 @@
       <c r="P34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18">
@@ -2803,7 +2845,9 @@
       <c r="P37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q37" s="3"/>
+      <c r="Q37" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18">
@@ -2911,11 +2955,11 @@
       </c>
       <c r="Q39" s="4">
         <f>COUNTIF(Q3:Q38,"〇")+COUNTIF(Q3:Q38,"◎")</f>
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="R39" s="4">
         <f>COUNTIF(R3:R38,"〇")+COUNTIF(R3:R38,"◎")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2969,11 +3013,11 @@
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="8"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" ref="R40" si="9">R39/COUNTA($A$3:$A$256)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -10,12 +10,12 @@
     <sheet name="A" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="156">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -954,7 +954,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1099,7 +1099,9 @@
       <c r="P3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18">
@@ -1149,7 +1151,9 @@
       <c r="P4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18">
@@ -1308,7 +1312,9 @@
       <c r="Q7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
@@ -1418,7 +1424,9 @@
       <c r="Q9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
@@ -1466,7 +1474,9 @@
       <c r="Q10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
@@ -1515,7 +1525,9 @@
       <c r="P11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18">
@@ -1570,7 +1582,9 @@
       <c r="Q12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
@@ -1621,8 +1635,12 @@
       <c r="P13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
@@ -1730,7 +1748,9 @@
       <c r="Q15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
@@ -1892,7 +1912,9 @@
       <c r="Q18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="1">
@@ -1996,7 +2018,9 @@
       <c r="Q20" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1">
@@ -2047,7 +2071,9 @@
       <c r="P21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18">
@@ -2097,7 +2123,9 @@
       <c r="P22" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18">
@@ -2149,7 +2177,9 @@
       <c r="P23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18">
@@ -2199,7 +2229,9 @@
       <c r="P24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18">
@@ -2254,7 +2286,9 @@
       <c r="Q25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R25" s="3"/>
+      <c r="R25" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="1">
@@ -2305,7 +2339,9 @@
       <c r="P26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18">
@@ -2698,7 +2734,9 @@
       <c r="Q34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="1">
@@ -2795,8 +2833,12 @@
       <c r="P36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="Q36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="1">
@@ -2848,7 +2890,9 @@
       <c r="Q37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R37" s="3"/>
+      <c r="R37" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="1">
@@ -2955,11 +2999,11 @@
       </c>
       <c r="Q39" s="4">
         <f>COUNTIF(Q3:Q38,"〇")+COUNTIF(Q3:Q38,"◎")</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="R39" s="4">
         <f>COUNTIF(R3:R38,"〇")+COUNTIF(R3:R38,"◎")</f>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3013,11 +3057,11 @@
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="8"/>
-        <v>0.61111111111111116</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" ref="R40" si="9">R39/COUNTA($A$3:$A$256)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="156">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -951,10 +951,10 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
+      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2484,7 +2484,9 @@
       <c r="Q29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="1">
@@ -3003,7 +3005,7 @@
       </c>
       <c r="R39" s="4">
         <f>COUNTIF(R3:R38,"〇")+COUNTIF(R3:R38,"◎")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3061,7 +3063,7 @@
       </c>
       <c r="R40" s="6">
         <f t="shared" ref="R40" si="9">R39/COUNTA($A$3:$A$256)</f>
-        <v>0.41666666666666669</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="158">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -538,6 +538,14 @@
   </si>
   <si>
     <t>S5Ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -948,13 +956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T28" sqref="T28"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -966,7 +974,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1007,8 +1015,14 @@
         <v>135</v>
       </c>
       <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1051,8 +1065,14 @@
       <c r="R2" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1103,8 +1123,10 @@
         <v>134</v>
       </c>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1155,8 +1177,10 @@
         <v>134</v>
       </c>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1207,8 +1231,10 @@
         <v>134</v>
       </c>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1263,8 +1289,14 @@
       <c r="R6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1315,8 +1347,10 @@
       <c r="R7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1371,8 +1405,12 @@
       <c r="R8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1427,8 +1465,12 @@
       <c r="R9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1477,8 +1519,10 @@
       <c r="R10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1529,8 +1573,10 @@
         <v>134</v>
       </c>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1585,8 +1631,10 @@
       <c r="R12" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1641,8 +1689,10 @@
       <c r="R13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1695,8 +1745,14 @@
         <v>134</v>
       </c>
       <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1751,8 +1807,14 @@
       <c r="R15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1805,8 +1867,14 @@
         <v>134</v>
       </c>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1859,8 +1927,10 @@
         <v>134</v>
       </c>
       <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1915,8 +1985,14 @@
       <c r="R18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1971,8 +2047,10 @@
       <c r="R19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2021,8 +2099,10 @@
       <c r="R20" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2075,8 +2155,10 @@
         <v>134</v>
       </c>
       <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2127,8 +2209,10 @@
         <v>134</v>
       </c>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2181,8 +2265,10 @@
         <v>134</v>
       </c>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2233,8 +2319,10 @@
         <v>134</v>
       </c>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2289,8 +2377,10 @@
       <c r="R25" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2342,9 +2432,13 @@
       <c r="Q26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="R26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2383,8 +2477,10 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2435,8 +2531,10 @@
         <v>134</v>
       </c>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2487,8 +2585,12 @@
       <c r="R29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2539,8 +2641,12 @@
         <v>134</v>
       </c>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2589,8 +2695,10 @@
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2641,8 +2749,10 @@
         <v>134</v>
       </c>
       <c r="R32" s="3"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2683,8 +2793,10 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2739,8 +2851,10 @@
       <c r="R34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2785,8 +2899,10 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2841,8 +2957,10 @@
       <c r="R36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2895,8 +3013,10 @@
       <c r="R37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2949,8 +3069,10 @@
         <v>134</v>
       </c>
       <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+    </row>
+    <row r="39" spans="1:20">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -3005,10 +3127,18 @@
       </c>
       <c r="R39" s="4">
         <f>COUNTIF(R3:R38,"〇")+COUNTIF(R3:R38,"◎")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
+        <v>17</v>
+      </c>
+      <c r="S39" s="4">
+        <f>COUNTIF(S3:S38,"〇")+COUNTIF(S3:S38,"◎")</f>
+        <v>9</v>
+      </c>
+      <c r="T39" s="4">
+        <f>COUNTIF(T3:T38,"〇")+COUNTIF(T3:T38,"◎")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -3062,8 +3192,16 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" ref="R40" si="9">R39/COUNTA($A$3:$A$256)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" ref="R40:T40" si="9">R39/COUNTA($A$3:$A$256)</f>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="S40" s="6">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="T40" s="6">
+        <f t="shared" si="9"/>
+        <v>0.1388888888888889</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="159">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -546,6 +546,10 @@
   </si>
   <si>
     <t>S7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S8</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -956,13 +960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -974,7 +978,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1021,8 +1025,9 @@
       <c r="T1" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1071,8 +1076,11 @@
       <c r="T2" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1125,8 +1133,9 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1177,10 +1186,13 @@
         <v>134</v>
       </c>
       <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T4" s="3"/>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1233,8 +1245,9 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1295,8 +1308,9 @@
       <c r="T6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1349,8 +1363,9 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1409,8 +1424,9 @@
         <v>134</v>
       </c>
       <c r="T8" s="3"/>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1469,8 +1485,9 @@
         <v>134</v>
       </c>
       <c r="T9" s="3"/>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1521,8 +1538,9 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1575,8 +1593,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1633,8 +1652,9 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1689,10 +1709,13 @@
       <c r="R13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T13" s="3"/>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1751,8 +1774,9 @@
       <c r="T14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1813,8 +1837,9 @@
       <c r="T15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1866,15 +1891,18 @@
       <c r="Q16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="S16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1929,8 +1957,9 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1991,8 +2020,11 @@
       <c r="T18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2047,10 +2079,15 @@
       <c r="R19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="S19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2101,8 +2138,9 @@
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2155,10 +2193,17 @@
         <v>134</v>
       </c>
       <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="S21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2211,8 +2256,9 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2267,8 +2313,9 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2321,8 +2368,9 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2377,10 +2425,13 @@
       <c r="R25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2437,8 +2488,9 @@
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2479,8 +2531,9 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2531,10 +2584,13 @@
         <v>134</v>
       </c>
       <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2588,9 +2644,12 @@
       <c r="S29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="T29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2644,9 +2703,12 @@
       <c r="S30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="T30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2697,8 +2759,9 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2749,10 +2812,13 @@
         <v>134</v>
       </c>
       <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="S32" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2793,10 +2859,13 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2853,8 +2922,9 @@
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2901,8 +2971,9 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2957,10 +3028,17 @@
       <c r="R36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="S36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3015,8 +3093,9 @@
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3069,10 +3148,15 @@
         <v>134</v>
       </c>
       <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="S38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="1:21">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -3114,94 +3198,102 @@
         <v>32</v>
       </c>
       <c r="O39" s="4">
-        <f>COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
+        <f t="shared" ref="O39:U39" si="4">COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
         <v>33</v>
       </c>
       <c r="P39" s="4">
-        <f>COUNTIF(P3:P38,"〇")+COUNTIF(P3:P38,"◎")</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="Q39" s="4">
-        <f>COUNTIF(Q3:Q38,"〇")+COUNTIF(Q3:Q38,"◎")</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="R39" s="4">
-        <f>COUNTIF(R3:R38,"〇")+COUNTIF(R3:R38,"◎")</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="S39" s="4">
-        <f>COUNTIF(S3:S38,"〇")+COUNTIF(S3:S38,"◎")</f>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
       <c r="T39" s="4">
-        <f>COUNTIF(T3:T38,"〇")+COUNTIF(T3:T38,"◎")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="4">F39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="F40:I40" si="5">F39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:K40" si="5">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="6">J39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:M40" si="6">L39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="L40:M40" si="7">L39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" ref="N40:O40" si="7">N39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="N40:O40" si="8">N39/COUNTA($A$3:$A$256)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" ref="P40:Q40" si="8">P39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="P40:Q40" si="9">P39/COUNTA($A$3:$A$256)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" ref="R40:T40" si="9">R39/COUNTA($A$3:$A$256)</f>
-        <v>0.47222222222222221</v>
+        <f t="shared" ref="R40:T40" si="10">R39/COUNTA($A$3:$A$256)</f>
+        <v>0.5</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
+        <f t="shared" si="10"/>
+        <v>0.52777777777777779</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1388888888888889</v>
+        <f t="shared" si="10"/>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" ref="U40" si="11">U39/COUNTA($A$3:$A$256)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="159">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -963,10 +963,10 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1423,7 +1423,9 @@
       <c r="S8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="1:21">
@@ -1484,7 +1486,9 @@
       <c r="S9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="1:21">
@@ -1536,7 +1540,9 @@
       <c r="R10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
@@ -2311,8 +2317,12 @@
         <v>134</v>
       </c>
       <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U23" s="3"/>
     </row>
     <row r="24" spans="1:21">
@@ -2366,8 +2376,12 @@
         <v>134</v>
       </c>
       <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U24" s="3"/>
     </row>
     <row r="25" spans="1:21">
@@ -2486,8 +2500,12 @@
       <c r="R26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="1:21">
@@ -2920,8 +2938,12 @@
       <c r="R34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="S34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U34" s="3"/>
     </row>
     <row r="35" spans="1:21">
@@ -2969,8 +2991,12 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U35" s="3"/>
     </row>
     <row r="36" spans="1:21">
@@ -3215,11 +3241,11 @@
       </c>
       <c r="S39" s="4">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="T39" s="4">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
@@ -3285,11 +3311,11 @@
       </c>
       <c r="S40" s="6">
         <f t="shared" si="10"/>
-        <v>0.52777777777777779</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="T40" s="6">
         <f t="shared" si="10"/>
-        <v>0.30555555555555558</v>
+        <v>0.5</v>
       </c>
       <c r="U40" s="6">
         <f t="shared" ref="U40" si="11">U39/COUNTA($A$3:$A$256)</f>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="159">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -963,10 +963,10 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomRight" activeCell="W10" activeCellId="1" sqref="U6 W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1308,7 +1308,9 @@
       <c r="T6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
@@ -3249,7 +3251,7 @@
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3319,7 +3321,7 @@
       </c>
       <c r="U40" s="6">
         <f t="shared" ref="U40" si="11">U39/COUNTA($A$3:$A$256)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="159">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -963,10 +963,10 @@
   <dimension ref="A1:U40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W10" activeCellId="1" sqref="U6 W10"/>
+      <selection pane="bottomRight" activeCell="T35" activeCellId="1" sqref="S37:T37 T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3119,8 +3119,12 @@
       <c r="R37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U37" s="3"/>
     </row>
     <row r="38" spans="1:21">
@@ -3243,11 +3247,11 @@
       </c>
       <c r="S39" s="4">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T39" s="4">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
@@ -3313,11 +3317,11 @@
       </c>
       <c r="S40" s="6">
         <f t="shared" si="10"/>
-        <v>0.69444444444444442</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="T40" s="6">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="U40" s="6">
         <f t="shared" ref="U40" si="11">U39/COUNTA($A$3:$A$256)</f>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="160">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -550,6 +550,10 @@
   </si>
   <si>
     <t>S8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -660,7 +664,22 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -960,13 +979,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T35" activeCellId="1" sqref="S37:T37 T35"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -978,7 +997,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1026,8 +1045,9 @@
         <v>135</v>
       </c>
       <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1079,8 +1099,11 @@
       <c r="U2" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1131,11 +1154,18 @@
         <v>134</v>
       </c>
       <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="S3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1189,10 +1219,15 @@
       <c r="S4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="T4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1244,10 +1279,15 @@
       </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="T5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1311,8 +1351,9 @@
       <c r="U6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1363,11 +1404,14 @@
       <c r="R7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1428,9 +1472,12 @@
       <c r="T8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="U8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1492,8 +1539,9 @@
         <v>134</v>
       </c>
       <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1545,10 +1593,15 @@
       <c r="S10" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="T10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1599,11 +1652,18 @@
         <v>134</v>
       </c>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="S11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1658,11 +1718,16 @@
       <c r="R12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="U12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1722,8 +1787,9 @@
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1783,8 +1849,9 @@
         <v>134</v>
       </c>
       <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1845,9 +1912,12 @@
       <c r="T15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="U15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1908,9 +1978,12 @@
       <c r="T16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="U16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1962,12 +2035,21 @@
       <c r="Q17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="R17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2031,8 +2113,9 @@
       <c r="U18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2093,9 +2176,12 @@
       <c r="T19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="U19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2147,8 +2233,9 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2210,8 +2297,9 @@
       <c r="U21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2265,8 +2353,9 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2326,8 +2415,9 @@
         <v>134</v>
       </c>
       <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2385,8 +2475,9 @@
         <v>134</v>
       </c>
       <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2445,9 +2536,12 @@
         <v>134</v>
       </c>
       <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="U25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2508,9 +2602,12 @@
       <c r="T26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="U26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2552,8 +2649,9 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2609,8 +2707,9 @@
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28" s="3"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2667,9 +2766,12 @@
       <c r="T29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U29" s="3"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="U29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2726,9 +2828,12 @@
       <c r="T30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="U30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2780,8 +2885,9 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2836,9 +2942,12 @@
         <v>134</v>
       </c>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="U32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2884,8 +2993,9 @@
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2946,9 +3056,12 @@
       <c r="T34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="U34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3000,8 +3113,9 @@
         <v>134</v>
       </c>
       <c r="U35" s="3"/>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3065,8 +3179,9 @@
       <c r="U36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3125,9 +3240,12 @@
       <c r="T37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U37" s="3"/>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="U37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3179,16 +3297,21 @@
       <c r="Q38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R38" s="3"/>
+      <c r="R38" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="S38" s="3" t="s">
         <v>134</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="U38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V38" s="3"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -3243,93 +3366,106 @@
       </c>
       <c r="R39" s="4">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T39" s="4">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="V39" s="4">
+        <f t="shared" ref="V39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="5">F39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="F40:I40" si="6">F39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.52777777777777779</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:K40" si="6">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="7">J39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:M40" si="7">L39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="L40:M40" si="8">L39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" ref="N40:O40" si="8">N39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="N40:O40" si="9">N39/COUNTA($A$3:$A$256)</f>
         <v>0.88888888888888884</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" ref="P40:Q40" si="9">P39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="P40:Q40" si="10">P39/COUNTA($A$3:$A$256)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" ref="R40:T40" si="10">R39/COUNTA($A$3:$A$256)</f>
-        <v>0.5</v>
+        <f t="shared" ref="R40:T40" si="11">R39/COUNTA($A$3:$A$256)</f>
+        <v>0.55555555555555558</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="10"/>
-        <v>0.72222222222222221</v>
+        <f t="shared" si="11"/>
+        <v>0.86111111111111116</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="10"/>
-        <v>0.52777777777777779</v>
+        <f t="shared" si="11"/>
+        <v>0.69444444444444442</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" ref="U40" si="11">U39/COUNTA($A$3:$A$256)</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" ref="U40:V40" si="12">U39/COUNTA($A$3:$A$256)</f>
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="E3:U38">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="160">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -664,7 +664,119 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -982,10 +1094,10 @@
   <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
+      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1143,7 +1255,9 @@
       <c r="M3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="O3" s="3" t="s">
         <v>134</v>
       </c>
@@ -1277,8 +1391,12 @@
       <c r="Q5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T5" s="3" t="s">
         <v>134</v>
       </c>
@@ -1408,7 +1526,9 @@
         <v>134</v>
       </c>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22">
@@ -1538,7 +1658,9 @@
       <c r="T9" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22">
@@ -1785,7 +1907,9 @@
       <c r="S13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
@@ -2350,7 +2474,9 @@
         <v>134</v>
       </c>
       <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2414,7 +2540,9 @@
       <c r="T23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22">
@@ -2535,7 +2663,9 @@
       <c r="S25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U25" s="3" t="s">
         <v>134</v>
       </c>
@@ -2705,7 +2835,9 @@
       <c r="S28" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
@@ -2734,8 +2866,12 @@
       <c r="H29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="1"/>
+      <c r="I29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="K29" s="3" t="s">
         <v>134</v>
       </c>
@@ -2796,7 +2932,9 @@
       <c r="H30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="J30" s="3" t="s">
         <v>134</v>
       </c>
@@ -2882,9 +3020,15 @@
       </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+      <c r="S31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="1:22">
@@ -2941,7 +3085,9 @@
       <c r="S32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T32" s="3"/>
+      <c r="T32" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U32" s="3" t="s">
         <v>134</v>
       </c>
@@ -3103,8 +3249,12 @@
       <c r="O35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="P35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3" t="s">
         <v>134</v>
@@ -3112,7 +3262,9 @@
       <c r="T35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U35" s="3"/>
+      <c r="U35" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="1:22">
@@ -3330,11 +3482,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" ref="J39:K39" si="1">COUNTIF(J3:J38,"〇")</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K39" s="4">
         <f t="shared" si="1"/>
@@ -3350,7 +3502,7 @@
       </c>
       <c r="N39" s="4">
         <f t="shared" ref="N39" si="3">COUNTIF(N3:N38,"〇")</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O39" s="4">
         <f t="shared" ref="O39:U39" si="4">COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
@@ -3358,27 +3510,27 @@
       </c>
       <c r="P39" s="4">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="4">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R39" s="4">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="T39" s="4">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="V39" s="4">
         <f t="shared" ref="V39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
@@ -3404,11 +3556,11 @@
       </c>
       <c r="I40" s="6">
         <f t="shared" si="6"/>
-        <v>0.52777777777777779</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" ref="J40:K40" si="7">J39/COUNTA($A$3:$A$256)</f>
-        <v>0.94444444444444442</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="7"/>
@@ -3424,7 +3576,7 @@
       </c>
       <c r="N40" s="6">
         <f t="shared" ref="N40:O40" si="9">N39/COUNTA($A$3:$A$256)</f>
-        <v>0.88888888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="9"/>
@@ -3432,27 +3584,27 @@
       </c>
       <c r="P40" s="6">
         <f t="shared" ref="P40:Q40" si="10">P39/COUNTA($A$3:$A$256)</f>
-        <v>0.91666666666666663</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="10"/>
-        <v>0.88888888888888884</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" ref="R40:T40" si="11">R39/COUNTA($A$3:$A$256)</f>
-        <v>0.55555555555555558</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="S40" s="6">
         <f t="shared" si="11"/>
-        <v>0.86111111111111116</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="T40" s="6">
         <f t="shared" si="11"/>
-        <v>0.69444444444444442</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="U40" s="6">
         <f t="shared" ref="U40:V40" si="12">U39/COUNTA($A$3:$A$256)</f>
-        <v>0.63888888888888884</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="V40" s="6">
         <f t="shared" si="12"/>
@@ -3462,7 +3614,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:U38">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="161">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -554,6 +554,10 @@
   </si>
   <si>
     <t>S9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -664,7 +668,252 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="53">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1091,13 +1340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T10" sqref="T10"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1109,7 +1358,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1158,8 +1407,11 @@
       </c>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1214,8 +1466,11 @@
       <c r="V2" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1278,8 +1533,9 @@
         <v>134</v>
       </c>
       <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1340,8 +1596,9 @@
         <v>134</v>
       </c>
       <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1403,9 +1660,12 @@
       <c r="U5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="V5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1470,8 +1730,11 @@
         <v>134</v>
       </c>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1529,9 +1792,12 @@
       <c r="U7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="V7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1595,9 +1861,14 @@
       <c r="U8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="V8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1662,8 +1933,9 @@
         <v>134</v>
       </c>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1722,8 +1994,9 @@
         <v>134</v>
       </c>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1784,8 +2057,11 @@
         <v>134</v>
       </c>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1847,9 +2123,12 @@
       <c r="U12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="V12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1911,9 +2190,12 @@
         <v>134</v>
       </c>
       <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="V13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1974,8 +2256,11 @@
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2039,9 +2324,14 @@
       <c r="U15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="V15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2105,9 +2395,14 @@
       <c r="U16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="V16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2172,8 +2467,9 @@
         <v>134</v>
       </c>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2238,8 +2534,11 @@
         <v>134</v>
       </c>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2304,8 +2603,9 @@
         <v>134</v>
       </c>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2358,8 +2658,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2421,9 +2722,12 @@
       <c r="U21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="V21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2480,8 +2784,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2543,9 +2848,14 @@
       <c r="U23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="V23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2603,9 +2913,12 @@
         <v>134</v>
       </c>
       <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="V24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2670,8 +2983,9 @@
         <v>134</v>
       </c>
       <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2736,8 +3050,9 @@
         <v>134</v>
       </c>
       <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2780,8 +3095,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2840,8 +3156,9 @@
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2905,9 +3222,12 @@
       <c r="U29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="V29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2969,9 +3289,12 @@
       <c r="U30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="V30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3030,8 +3353,11 @@
         <v>134</v>
       </c>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3092,8 +3418,9 @@
         <v>134</v>
       </c>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3140,8 +3467,9 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3205,9 +3533,14 @@
       <c r="U34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="V34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3266,8 +3599,9 @@
         <v>134</v>
       </c>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3331,9 +3665,12 @@
       <c r="U36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="V36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3396,8 +3733,11 @@
         <v>134</v>
       </c>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3461,9 +3801,14 @@
       <c r="U38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="V38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -3533,11 +3878,15 @@
         <v>28</v>
       </c>
       <c r="V39" s="4">
-        <f t="shared" ref="V39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+        <f t="shared" ref="V39:W39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
+        <v>15</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -3608,13 +3957,147 @@
       </c>
       <c r="V40" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" ref="W40" si="13">W39/COUNTA($A$3:$A$256)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:U38">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V16">
+    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V21">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V15">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V23">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V29:V30">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V34">
+    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W37">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W38">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W34">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="161">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -1343,10 +1343,10 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1795,7 +1795,9 @@
       <c r="V7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1">
@@ -1933,7 +1935,9 @@
         <v>134</v>
       </c>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1">
@@ -2193,7 +2197,9 @@
       <c r="V13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="1">
@@ -2254,8 +2260,12 @@
       <c r="T14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="W14" s="3" t="s">
         <v>134</v>
       </c>
@@ -2533,7 +2543,9 @@
       <c r="U18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="V18" s="3"/>
+      <c r="V18" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="W18" s="3" t="s">
         <v>134</v>
       </c>
@@ -2603,7 +2615,9 @@
         <v>134</v>
       </c>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="1">
@@ -2725,7 +2739,9 @@
       <c r="V21" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="1">
@@ -2916,7 +2932,9 @@
       <c r="V24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W24" s="3"/>
+      <c r="W24" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="1">
@@ -3050,7 +3068,9 @@
         <v>134</v>
       </c>
       <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="1">
@@ -3225,7 +3245,9 @@
       <c r="V29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W29" s="3"/>
+      <c r="W29" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="1">
@@ -3418,7 +3440,9 @@
         <v>134</v>
       </c>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="W32" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="1">
@@ -3599,7 +3623,9 @@
         <v>134</v>
       </c>
       <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="W35" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="1">
@@ -3668,7 +3694,9 @@
       <c r="V36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W36" s="3"/>
+      <c r="W36" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="1">
@@ -3875,15 +3903,15 @@
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V39" s="4">
         <f t="shared" ref="V39:W39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W39" s="4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3953,150 +3981,215 @@
       </c>
       <c r="U40" s="6">
         <f t="shared" ref="U40:V40" si="12">U39/COUNTA($A$3:$A$256)</f>
-        <v>0.77777777777777779</v>
+        <v>0.80555555555555558</v>
       </c>
       <c r="V40" s="6">
         <f t="shared" si="12"/>
-        <v>0.41666666666666669</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="W40" s="6">
         <f t="shared" ref="W40" si="13">W39/COUNTA($A$3:$A$256)</f>
-        <v>0.33333333333333331</v>
+        <v>0.63888888888888884</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E3:U38">
-    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
+  <conditionalFormatting sqref="E3:U13 E15:U38 E14:T14">
+    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="47" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="39" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="31" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15">
+    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8">
+    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W37">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W38">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W34">
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
+  <conditionalFormatting sqref="U14:V14">
     <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W8">
+  <conditionalFormatting sqref="W32">
     <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="W29">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W37">
+  <conditionalFormatting sqref="W13">
     <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="W7">
     <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+  <conditionalFormatting sqref="W21">
     <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W38">
+  <conditionalFormatting sqref="W35">
     <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
+  <conditionalFormatting sqref="W24">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W16">
+  <conditionalFormatting sqref="W19">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+  <conditionalFormatting sqref="W9">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W34">
+  <conditionalFormatting sqref="W26">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6">
+  <conditionalFormatting sqref="W36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="161">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -668,84 +668,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
@@ -1343,10 +1266,10 @@
   <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U42" sqref="U42"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1998,7 +1921,9 @@
         <v>134</v>
       </c>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1">
@@ -3911,7 +3836,7 @@
       </c>
       <c r="W39" s="4">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3989,207 +3914,212 @@
       </c>
       <c r="W40" s="6">
         <f t="shared" ref="W40" si="13">W39/COUNTA($A$3:$A$256)</f>
-        <v>0.63888888888888884</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E3:U13 E15:U38 E14:T14">
-    <cfRule type="cellIs" dxfId="52" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="50" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="49" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="46" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="45" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="44" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="43" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="41" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="162">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -558,6 +558,10 @@
   </si>
   <si>
     <t>DB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,7 +672,350 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1263,13 +1610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1281,7 +1628,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1333,8 +1680,11 @@
       <c r="W1" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1392,8 +1742,11 @@
       <c r="W2" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1457,8 +1810,9 @@
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1520,8 +1874,9 @@
       </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1586,9 +1941,12 @@
       <c r="V5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="W5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1656,8 +2014,11 @@
       <c r="W6" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1721,8 +2082,11 @@
       <c r="W7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1792,8 +2156,11 @@
       <c r="W8" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1861,8 +2228,11 @@
       <c r="W9" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1924,8 +2294,9 @@
       <c r="W10" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1989,8 +2360,9 @@
       <c r="W11" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2055,9 +2427,12 @@
       <c r="V12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="W12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2118,15 +2493,20 @@
       <c r="T13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V13" s="3" t="s">
         <v>134</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2194,8 +2574,11 @@
       <c r="W14" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2265,8 +2648,9 @@
       <c r="W15" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2336,8 +2720,11 @@
       <c r="W16" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2403,8 +2790,9 @@
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2474,8 +2862,9 @@
       <c r="W18" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2543,8 +2932,9 @@
       <c r="W19" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2597,9 +2987,12 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="W20" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2667,8 +3060,9 @@
       <c r="W21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2726,8 +3120,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2795,8 +3190,9 @@
       <c r="W23" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2860,8 +3256,9 @@
       <c r="W24" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2926,9 +3323,12 @@
         <v>134</v>
       </c>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="W25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2996,8 +3396,9 @@
       <c r="W26" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3041,8 +3442,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3102,8 +3504,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3173,8 +3576,9 @@
       <c r="W29" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3239,9 +3643,12 @@
       <c r="V30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="W30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3303,8 +3710,9 @@
       <c r="W31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3368,8 +3776,9 @@
       <c r="W32" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3417,8 +3826,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3488,8 +3898,9 @@
       <c r="W34" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3551,8 +3962,9 @@
       <c r="W35" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3622,8 +4034,9 @@
       <c r="W36" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3689,8 +4102,9 @@
       <c r="W37" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3760,8 +4174,9 @@
       <c r="W38" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -3828,7 +4243,7 @@
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V39" s="4">
         <f t="shared" ref="V39:W39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
@@ -3836,290 +4251,453 @@
       </c>
       <c r="W39" s="4">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23">
+        <v>29</v>
+      </c>
+      <c r="X39" s="4">
+        <f t="shared" ref="X39" si="6">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="6">F39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="F40:I40" si="7">F39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:K40" si="7">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="8">J39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:M40" si="8">L39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="L40:M40" si="9">L39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" ref="N40:O40" si="9">N39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="N40:O40" si="10">N39/COUNTA($A$3:$A$256)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="9"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="P40" s="6">
-        <f t="shared" ref="P40:Q40" si="10">P39/COUNTA($A$3:$A$256)</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="Q40" s="6">
         <f t="shared" si="10"/>
         <v>0.91666666666666663</v>
       </c>
+      <c r="P40" s="6">
+        <f t="shared" ref="P40:Q40" si="11">P39/COUNTA($A$3:$A$256)</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="Q40" s="6">
+        <f t="shared" si="11"/>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="R40" s="6">
-        <f t="shared" ref="R40:T40" si="11">R39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="R40:T40" si="12">R39/COUNTA($A$3:$A$256)</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" ref="U40:V40" si="12">U39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="U40:V40" si="13">U39/COUNTA($A$3:$A$256)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="V40" s="6">
+        <f t="shared" si="13"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" ref="W40:X40" si="14">W39/COUNTA($A$3:$A$256)</f>
         <v>0.80555555555555558</v>
       </c>
-      <c r="V40" s="6">
-        <f t="shared" si="12"/>
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" ref="W40" si="13">W39/COUNTA($A$3:$A$256)</f>
-        <v>0.66666666666666663</v>
+      <c r="X40" s="6">
+        <f t="shared" si="14"/>
+        <v>0.19444444444444445</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E3:U13 E15:U38 E14:T14">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
+  <conditionalFormatting sqref="E3:U12 E15:U38 E13:T14">
+    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="78" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="39" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="77" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="76" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="37" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="75" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="74" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="73" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="72" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="32" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="70" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="69" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="68" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="67" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="63" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="61" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="58" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="57" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="56" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="55" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="54" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="52" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="45" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
+    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W5">
+    <cfRule type="cellIs" dxfId="49" priority="38" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X15">
+    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X37">
+    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X38">
+    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="163">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -562,6 +562,10 @@
   </si>
   <si>
     <t>DB2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB2Ex</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -672,7 +676,1274 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="91">
+  <dxfs count="272">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1610,13 +2881,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V23" sqref="V23"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1628,7 +2899,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1683,8 +2954,9 @@
       <c r="X1" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1745,8 +3017,11 @@
       <c r="X2" s="8" t="s">
         <v>161</v>
       </c>
+      <c r="Y2" s="8" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1798,7 +3073,9 @@
       <c r="Q3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="S3" s="3" t="s">
         <v>134</v>
       </c>
@@ -1811,8 +3088,9 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1875,8 +3153,9 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1944,9 +3223,12 @@
       <c r="W5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" s="3"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2017,8 +3299,11 @@
       <c r="X6" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y6" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2085,8 +3370,9 @@
       <c r="X7" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y7" s="3"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2159,8 +3445,11 @@
       <c r="X8" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y8" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2231,8 +3520,9 @@
       <c r="X9" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y9" s="3"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2295,8 +3585,9 @@
         <v>134</v>
       </c>
       <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2360,9 +3651,12 @@
       <c r="W11" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X11" s="3"/>
+      <c r="X11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="3"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2431,8 +3725,9 @@
         <v>134</v>
       </c>
       <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2505,8 +3800,9 @@
       <c r="X13" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y13" s="3"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2577,8 +3873,9 @@
       <c r="X14" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y14" s="3"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2648,9 +3945,12 @@
       <c r="W15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" s="3"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2723,8 +4023,11 @@
       <c r="X16" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Y16" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2790,9 +4093,12 @@
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2862,9 +4168,12 @@
       <c r="W18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X18" s="3"/>
+      <c r="X18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2932,9 +4241,12 @@
       <c r="W19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X19" s="3"/>
+      <c r="X19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2991,8 +4303,9 @@
         <v>134</v>
       </c>
       <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3061,8 +4374,9 @@
         <v>134</v>
       </c>
       <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3121,8 +4435,9 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3190,9 +4505,12 @@
       <c r="W23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X23" s="3"/>
+      <c r="X23" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3256,9 +4574,14 @@
       <c r="W24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X24" s="3"/>
+      <c r="X24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3326,9 +4649,12 @@
       <c r="W25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3397,8 +4723,9 @@
         <v>134</v>
       </c>
       <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3443,8 +4770,9 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3503,10 +4831,13 @@
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="W28" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3576,9 +4907,12 @@
       <c r="W29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X29" s="3"/>
+      <c r="X29" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3646,9 +4980,12 @@
       <c r="W30" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X30" s="3"/>
+      <c r="X30" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3711,8 +5048,9 @@
         <v>134</v>
       </c>
       <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3777,8 +5115,9 @@
         <v>134</v>
       </c>
       <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3827,8 +5166,9 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -3898,9 +5238,12 @@
       <c r="W34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X34" s="3"/>
+      <c r="X34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y34" s="3"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3963,8 +5306,9 @@
         <v>134</v>
       </c>
       <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4034,9 +5378,12 @@
       <c r="W36" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X36" s="3"/>
+      <c r="X36" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y36" s="3"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4102,9 +5449,12 @@
       <c r="W37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X37" s="3"/>
+      <c r="X37" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y37" s="3"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4174,9 +5524,12 @@
       <c r="W38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X38" s="3"/>
+      <c r="X38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y38" s="3"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:25">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
@@ -4231,7 +5584,7 @@
       </c>
       <c r="R39" s="4">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S39" s="4">
         <f t="shared" si="4"/>
@@ -4251,14 +5604,18 @@
       </c>
       <c r="W39" s="4">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X39" s="4">
-        <f t="shared" ref="X39" si="6">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
-        <v>7</v>
+        <f t="shared" ref="X39:Y39" si="6">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
+        <v>22</v>
+      </c>
+      <c r="Y39" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:25">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
@@ -4313,7 +5670,7 @@
       </c>
       <c r="R40" s="6">
         <f t="shared" ref="R40:T40" si="12">R39/COUNTA($A$3:$A$256)</f>
-        <v>0.58333333333333337</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="S40" s="6">
         <f t="shared" si="12"/>
@@ -4333,373 +5690,542 @@
       </c>
       <c r="W40" s="6">
         <f t="shared" ref="W40:X40" si="14">W39/COUNTA($A$3:$A$256)</f>
-        <v>0.80555555555555558</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="X40" s="6">
         <f t="shared" si="14"/>
-        <v>0.19444444444444445</v>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="Y40" s="6">
+        <f t="shared" ref="Y40" si="15">Y39/COUNTA($A$3:$A$256)</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E3:U12 E15:U38 E13:T14">
-    <cfRule type="cellIs" dxfId="90" priority="79" operator="equal">
+  <conditionalFormatting sqref="E15:U38 E13:T14 E3:U12">
+    <cfRule type="cellIs" dxfId="224" priority="129" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="89" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="128" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="88" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="127" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="87" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="126" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="86" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="125" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="85" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="124" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="84" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="123" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="83" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="122" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="82" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="121" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="81" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="120" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="80" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="119" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="79" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="118" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="78" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="117" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="77" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="116" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="115" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="75" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="114" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="74" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="113" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="112" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="72" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="111" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="110" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="70" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="109" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="69" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="108" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="68" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="107" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="67" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="106" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="66" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="105" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="65" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="104" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="64" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="103" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="63" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="cellIs" dxfId="62" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="101" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="61" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="100" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="60" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="99" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="98" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="58" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="97" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="96" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="56" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="95" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="55" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="94" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="93" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="92" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="91" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="51" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="90" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="50" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="89" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="49" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="88" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="182" priority="78" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="cellIs" dxfId="181" priority="75" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X21">
+    <cfRule type="cellIs" dxfId="180" priority="71" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X35">
+    <cfRule type="cellIs" dxfId="179" priority="70" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
+    <cfRule type="cellIs" dxfId="178" priority="66" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="cellIs" dxfId="177" priority="64" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13">
+    <cfRule type="cellIs" dxfId="176" priority="62" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="cellIs" dxfId="175" priority="61" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
+    <cfRule type="cellIs" dxfId="174" priority="60" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="cellIs" dxfId="173" priority="59" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="cellIs" dxfId="172" priority="58" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule type="cellIs" dxfId="171" priority="57" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8">
+    <cfRule type="cellIs" dxfId="170" priority="56" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="cellIs" dxfId="169" priority="55" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6">
+    <cfRule type="cellIs" dxfId="168" priority="54" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
+    <cfRule type="cellIs" dxfId="167" priority="53" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30">
+    <cfRule type="cellIs" dxfId="166" priority="52" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="cellIs" dxfId="165" priority="51" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28">
+    <cfRule type="cellIs" dxfId="164" priority="50" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X36">
+    <cfRule type="cellIs" dxfId="163" priority="49" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
+    <cfRule type="cellIs" dxfId="162" priority="48" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X5">
+    <cfRule type="cellIs" dxfId="161" priority="47" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X37">
+    <cfRule type="cellIs" dxfId="160" priority="46" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X23">
+    <cfRule type="cellIs" dxfId="159" priority="45" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17">
+    <cfRule type="cellIs" dxfId="158" priority="44" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="48" priority="37" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X37">
-    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="43" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="cellIs" dxfId="156" priority="42" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X34">
+    <cfRule type="cellIs" dxfId="155" priority="41" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X30">
+    <cfRule type="cellIs" dxfId="154" priority="40" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X29">
+    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="43" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="38" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="cellIs" dxfId="151" priority="37" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="39" priority="28" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="36" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y31">
+    <cfRule type="cellIs" dxfId="149" priority="35" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32">
+    <cfRule type="cellIs" dxfId="148" priority="34" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y21">
+    <cfRule type="cellIs" dxfId="147" priority="33" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y35">
+    <cfRule type="cellIs" dxfId="146" priority="32" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y26">
+    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="144" priority="29" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="cellIs" dxfId="143" priority="27" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9">
+    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13">
+    <cfRule type="cellIs" dxfId="141" priority="24" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="140" priority="22" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y36">
+    <cfRule type="cellIs" dxfId="139" priority="21" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
+    <cfRule type="cellIs" dxfId="138" priority="20" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5">
+    <cfRule type="cellIs" dxfId="137" priority="19" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y37">
+    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y23">
+    <cfRule type="cellIs" dxfId="135" priority="17" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y17">
+    <cfRule type="cellIs" dxfId="134" priority="16" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="cellIs" dxfId="133" priority="15" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18">
+    <cfRule type="cellIs" dxfId="132" priority="14" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y34">
+    <cfRule type="cellIs" dxfId="131" priority="13" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y30">
+    <cfRule type="cellIs" dxfId="130" priority="12" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="cellIs" dxfId="129" priority="11" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
+    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y38">
+    <cfRule type="cellIs" dxfId="126" priority="8" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5">
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U13">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X6">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$A$1</formula>
+    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:Y38">
+    <cfRule type="cellIs" dxfId="120" priority="1" operator="equal">
+      <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="163">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -676,1155 +676,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="272">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <fill>
         <patternFill>
@@ -2884,10 +1736,10 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5047,7 +3899,9 @@
       <c r="W31" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X31" s="3"/>
+      <c r="X31" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25">
@@ -5608,7 +4462,7 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" ref="X39:Y39" si="6">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" si="6"/>
@@ -5694,7 +4548,7 @@
       </c>
       <c r="X40" s="6">
         <f t="shared" si="14"/>
-        <v>0.61111111111111116</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="Y40" s="6">
         <f t="shared" ref="Y40" si="15">Y39/COUNTA($A$3:$A$256)</f>
@@ -5704,528 +4558,533 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E15:U38 E13:T14 E3:U12">
-    <cfRule type="cellIs" dxfId="224" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="130" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="223" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="129" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="222" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="128" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="221" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="127" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="220" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="126" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="219" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="125" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="218" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="124" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="217" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="123" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="216" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="122" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="215" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="121" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="214" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="120" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="213" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="119" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="212" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="118" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="211" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="cellIs" dxfId="210" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="116" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="209" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="115" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="208" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="114" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="207" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="113" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="206" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="112" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="205" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="111" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="204" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="110" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="203" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="109" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="202" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="108" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="201" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="107" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="200" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="199" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="105" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="198" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="104" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="197" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="103" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="cellIs" dxfId="196" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="102" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="195" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="101" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="194" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="100" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="193" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="192" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="98" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="191" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="190" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="96" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="189" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="95" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="188" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="94" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="187" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="93" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="186" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="92" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="185" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="91" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="184" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="183" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="89" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="182" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="181" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="180" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="179" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="71" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="178" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="177" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="cellIs" dxfId="176" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="175" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="cellIs" dxfId="174" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="173" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="172" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="171" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="170" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="169" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6">
-    <cfRule type="cellIs" dxfId="168" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="167" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="166" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="165" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="164" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="163" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="162" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
-    <cfRule type="cellIs" dxfId="161" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X37">
-    <cfRule type="cellIs" dxfId="160" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="159" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17">
-    <cfRule type="cellIs" dxfId="158" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="157" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="156" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="cellIs" dxfId="155" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30">
-    <cfRule type="cellIs" dxfId="154" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="153" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="152" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="151" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38">
-    <cfRule type="cellIs" dxfId="150" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y31">
-    <cfRule type="cellIs" dxfId="149" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="148" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="147" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="cellIs" dxfId="146" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="145" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="144" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="143" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="142" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="141" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="140" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36">
-    <cfRule type="cellIs" dxfId="139" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="138" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
-    <cfRule type="cellIs" dxfId="137" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="cellIs" dxfId="136" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="135" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="134" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="133" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18">
-    <cfRule type="cellIs" dxfId="132" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="cellIs" dxfId="131" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30">
-    <cfRule type="cellIs" dxfId="130" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="129" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="128" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="127" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="cellIs" dxfId="126" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="125" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="124" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="123" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="122" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16">
-    <cfRule type="cellIs" dxfId="121" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:Y38">
-    <cfRule type="cellIs" dxfId="120" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="163">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -676,7 +676,70 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="117">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1739,7 +1802,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X31" sqref="X31"/>
+      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1939,7 +2002,9 @@
       </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25">
@@ -2566,7 +2631,9 @@
       <c r="S12" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U12" s="3" t="s">
         <v>134</v>
       </c>
@@ -2800,7 +2867,9 @@
       <c r="X15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" s="1">
@@ -3968,7 +4037,9 @@
       <c r="W32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X32" s="3"/>
+      <c r="X32" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25">
@@ -4446,7 +4517,7 @@
       </c>
       <c r="T39" s="4">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U39" s="4">
         <f t="shared" si="4"/>
@@ -4462,11 +4533,11 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" ref="X39:Y39" si="6">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4532,7 +4603,7 @@
       </c>
       <c r="T40" s="6">
         <f t="shared" si="12"/>
-        <v>0.83333333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="U40" s="6">
         <f t="shared" ref="U40:V40" si="13">U39/COUNTA($A$3:$A$256)</f>
@@ -4548,541 +4619,556 @@
       </c>
       <c r="X40" s="6">
         <f t="shared" si="14"/>
-        <v>0.63888888888888884</v>
+        <v>0.69444444444444442</v>
       </c>
       <c r="Y40" s="6">
         <f t="shared" ref="Y40" si="15">Y39/COUNTA($A$3:$A$256)</f>
-        <v>0.1111111111111111</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E15:U38 E13:T14 E3:U12">
-    <cfRule type="cellIs" dxfId="107" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="106" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="132" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="105" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="131" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="104" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="103" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="129" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="102" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="128" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="101" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="100" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="99" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="98" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="97" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="123" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="96" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="122" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="95" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="120" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="cellIs" dxfId="93" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="119" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="92" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="91" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="117" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="90" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="89" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="88" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="114" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="87" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="113" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="86" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="85" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="111" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="84" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="82" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="108" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="81" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="80" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="cellIs" dxfId="79" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="105" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="78" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="104" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="77" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="102" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="75" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="101" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="73" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="72" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="71" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="70" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="69" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="95" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="68" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="67" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="93" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="66" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="92" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="65" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="63" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="62" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X37">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y31">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:Y38">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="166">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -566,6 +566,24 @@
   </si>
   <si>
     <t>DB2Ex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -622,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -645,11 +663,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -672,11 +701,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="119">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1796,13 +1842,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="K18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X29" sqref="X29"/>
+      <selection pane="bottomRight" activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1814,7 +1860,7 @@
     <col min="5" max="9" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="D1" t="s">
         <v>136</v>
       </c>
@@ -1871,7 +1917,7 @@
       </c>
       <c r="Y1" s="4"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="E2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1935,8 +1981,17 @@
       <c r="Y2" s="8" t="s">
         <v>162</v>
       </c>
+      <c r="Z2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2006,8 +2061,20 @@
         <v>134</v>
       </c>
       <c r="Y3" s="3"/>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z14" si="0">COUNTIF(E3:H3,"〇")+COUNTIF(J3:Q3,"〇")+COUNTIF(S3:T3,"〇")+COUNTIF(W3:X3,"〇")+COUNTIF(O3,"◎")</f>
+        <v>15</v>
+      </c>
+      <c r="AA3">
+        <f>COUNTIF(Y3,"〇")+COUNTIF(V3,"〇")+COUNTIF(R3,"〇")+COUNTIF(I3,"〇")</f>
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <f>COUNTIF(E3:Y3,"◎")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2071,8 +2138,20 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA38" si="1">COUNTIF(Y4,"〇")+COUNTIF(V4,"〇")+COUNTIF(R4,"〇")+COUNTIF(I4,"〇")</f>
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB40" si="2">COUNTIF(E4:Y4,"◎")</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2144,8 +2223,20 @@
         <v>134</v>
       </c>
       <c r="Y5" s="3"/>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2219,8 +2310,20 @@
       <c r="Y6" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2274,7 +2377,9 @@
       <c r="S7" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="U7" s="3" t="s">
         <v>134</v>
       </c>
@@ -2288,8 +2393,20 @@
         <v>134</v>
       </c>
       <c r="Y7" s="3"/>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2365,8 +2482,20 @@
       <c r="Y8" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2438,8 +2567,20 @@
         <v>134</v>
       </c>
       <c r="Y9" s="3"/>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2503,8 +2644,20 @@
       </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2572,8 +2725,20 @@
         <v>134</v>
       </c>
       <c r="Y11" s="3"/>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2645,8 +2810,20 @@
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2720,8 +2897,20 @@
         <v>134</v>
       </c>
       <c r="Y13" s="3"/>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:28">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2793,8 +2982,20 @@
         <v>134</v>
       </c>
       <c r="Y14" s="3"/>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:28">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2870,8 +3071,20 @@
       <c r="Y15" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Z15">
+        <f>COUNTIF(E15:H15,"〇")+COUNTIF(J15:Q15,"〇")+COUNTIF(S15:T15,"〇")+COUNTIF(W15:X15,"〇")+COUNTIF(O15,"◎")</f>
+        <v>16</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:28">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2947,8 +3160,20 @@
       <c r="Y16" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Z16">
+        <f t="shared" ref="Z16:Z38" si="3">COUNTIF(E16:H16,"〇")+COUNTIF(J16:Q16,"〇")+COUNTIF(S16:T16,"〇")+COUNTIF(W16:X16,"〇")+COUNTIF(O16,"◎")</f>
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:28">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3018,8 +3243,20 @@
         <v>134</v>
       </c>
       <c r="Y17" s="3"/>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:28">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3093,8 +3330,20 @@
         <v>134</v>
       </c>
       <c r="Y18" s="3"/>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:28">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3166,8 +3415,20 @@
         <v>134</v>
       </c>
       <c r="Y19" s="3"/>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:28">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3225,8 +3486,20 @@
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:28">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3296,8 +3569,20 @@
       </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:28">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3357,8 +3642,20 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:28">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3430,8 +3727,20 @@
         <v>134</v>
       </c>
       <c r="Y23" s="3"/>
+      <c r="Z23">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:28">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3488,7 +3797,9 @@
       <c r="T24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="V24" s="3" t="s">
         <v>134</v>
       </c>
@@ -3501,8 +3812,20 @@
       <c r="Y24" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="Z24">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:28">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3574,8 +3897,20 @@
         <v>134</v>
       </c>
       <c r="Y25" s="3"/>
+      <c r="Z25">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3643,10 +3978,24 @@
       <c r="W26" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="X26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="Y26" s="3"/>
+      <c r="Z26">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3692,8 +4041,20 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
+      <c r="Z27">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:28">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3757,8 +4118,20 @@
       </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
+      <c r="Z28">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:28">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3832,8 +4205,20 @@
         <v>134</v>
       </c>
       <c r="Y29" s="3"/>
+      <c r="Z29">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:28">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3905,8 +4290,20 @@
         <v>134</v>
       </c>
       <c r="Y30" s="3"/>
+      <c r="Z30">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:28">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -3972,8 +4369,20 @@
         <v>134</v>
       </c>
       <c r="Y31" s="3"/>
+      <c r="Z31">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:28">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4041,8 +4450,20 @@
         <v>134</v>
       </c>
       <c r="Y32" s="3"/>
+      <c r="Z32">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:28">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4092,8 +4513,20 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
+      <c r="Z33">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:28">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4167,8 +4600,20 @@
         <v>134</v>
       </c>
       <c r="Y34" s="3"/>
+      <c r="Z34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:28">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4232,8 +4677,20 @@
       </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
+      <c r="Z35">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:28">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4307,8 +4764,20 @@
         <v>134</v>
       </c>
       <c r="Y36" s="3"/>
+      <c r="Z36">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:28">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4378,8 +4847,20 @@
         <v>134</v>
       </c>
       <c r="Y37" s="3"/>
+      <c r="Z37">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:28">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4452,724 +4933,756 @@
       <c r="X38" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="Y38" s="3"/>
+      <c r="Y38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:28">
       <c r="E39" s="4">
         <f>COUNTIF(E3:E38,"〇")</f>
         <v>34</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" ref="F39:I39" si="0">COUNTIF(F3:F38,"〇")</f>
+        <f t="shared" ref="F39:I39" si="4">COUNTIF(F3:F38,"〇")</f>
         <v>35</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" ref="J39:K39" si="1">COUNTIF(J3:J38,"〇")</f>
-        <v>35</v>
-      </c>
-      <c r="K39" s="4">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="L39" s="4">
-        <f t="shared" ref="L39:M39" si="2">COUNTIF(L3:L38,"〇")</f>
-        <v>35</v>
-      </c>
-      <c r="M39" s="4">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="N39" s="4">
-        <f t="shared" ref="N39" si="3">COUNTIF(N3:N38,"〇")</f>
-        <v>33</v>
-      </c>
-      <c r="O39" s="4">
-        <f t="shared" ref="O39:U39" si="4">COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
-        <v>33</v>
-      </c>
-      <c r="P39" s="4">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
+      <c r="I39" s="4">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" ref="J39:K39" si="5">COUNTIF(J3:J38,"〇")</f>
+        <v>35</v>
+      </c>
+      <c r="K39" s="4">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="L39" s="4">
+        <f t="shared" ref="L39:M39" si="6">COUNTIF(L3:L38,"〇")</f>
+        <v>35</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="N39" s="4">
+        <f t="shared" ref="N39" si="7">COUNTIF(N3:N38,"〇")</f>
+        <v>33</v>
+      </c>
+      <c r="O39" s="4">
+        <f t="shared" ref="O39:U39" si="8">COUNTIF(O3:O38,"〇")+COUNTIF(O3:O38,"◎")</f>
+        <v>33</v>
+      </c>
+      <c r="P39" s="4">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
       <c r="Q39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="R39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="S39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="U39" s="4">
-        <f t="shared" si="4"/>
+      <c r="V39" s="4">
+        <f t="shared" ref="V39:W39" si="9">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
+        <v>17</v>
+      </c>
+      <c r="W39" s="4">
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="V39" s="4">
-        <f t="shared" ref="V39:W39" si="5">COUNTIF(V3:V38,"〇")+COUNTIF(V3:V38,"◎")</f>
-        <v>17</v>
-      </c>
-      <c r="W39" s="4">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
       <c r="X39" s="4">
-        <f t="shared" ref="X39:Y39" si="6">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
-        <v>25</v>
+        <f t="shared" ref="X39:Y39" si="10">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
+        <v>26</v>
       </c>
       <c r="Y39" s="4">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AB39">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:28">
       <c r="E40" s="6">
         <f>E39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" ref="F40:I40" si="7">F39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="F40:I40" si="11">F39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" ref="J40:K40" si="8">J39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="J40:K40" si="12">J39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="K40" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="L40" s="6">
-        <f t="shared" ref="L40:M40" si="9">L39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="L40:M40" si="13">L39/COUNTA($A$3:$A$256)</f>
         <v>0.97222222222222221</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" ref="N40:O40" si="10">N39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="N40:O40" si="14">N39/COUNTA($A$3:$A$256)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" ref="P40:Q40" si="11">P39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="P40:Q40" si="15">P39/COUNTA($A$3:$A$256)</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" ref="R40:T40" si="12">R39/COUNTA($A$3:$A$256)</f>
+        <f t="shared" ref="R40:T40" si="16">R39/COUNTA($A$3:$A$256)</f>
         <v>0.61111111111111116</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="U40" s="6">
+        <f t="shared" ref="U40:V40" si="17">U39/COUNTA($A$3:$A$256)</f>
         <v>0.86111111111111116</v>
       </c>
-      <c r="U40" s="6">
-        <f t="shared" ref="U40:V40" si="13">U39/COUNTA($A$3:$A$256)</f>
+      <c r="V40" s="6">
+        <f t="shared" si="17"/>
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="W40" s="6">
+        <f t="shared" ref="W40:X40" si="18">W39/COUNTA($A$3:$A$256)</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="V40" s="6">
-        <f t="shared" si="13"/>
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" ref="W40:X40" si="14">W39/COUNTA($A$3:$A$256)</f>
-        <v>0.83333333333333337</v>
-      </c>
       <c r="X40" s="6">
-        <f t="shared" si="14"/>
-        <v>0.69444444444444442</v>
+        <f t="shared" si="18"/>
+        <v>0.72222222222222221</v>
       </c>
       <c r="Y40" s="6">
-        <f t="shared" ref="Y40" si="15">Y39/COUNTA($A$3:$A$256)</f>
-        <v>0.1388888888888889</v>
+        <f t="shared" ref="Y40" si="19">Y39/COUNTA($A$3:$A$256)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E15:U38 E13:T14 E3:U12">
+  <conditionalFormatting sqref="E13:T14 E15:U38 E3:U12">
+    <cfRule type="cellIs" dxfId="118" priority="135" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V38">
+    <cfRule type="cellIs" dxfId="117" priority="134" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V36">
     <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V38">
+  <conditionalFormatting sqref="V16">
     <cfRule type="cellIs" dxfId="115" priority="132" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V36">
+  <conditionalFormatting sqref="V21">
     <cfRule type="cellIs" dxfId="114" priority="131" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V16">
+  <conditionalFormatting sqref="V15">
     <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V21">
+  <conditionalFormatting sqref="V23">
     <cfRule type="cellIs" dxfId="112" priority="129" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V15">
+  <conditionalFormatting sqref="V8">
     <cfRule type="cellIs" dxfId="111" priority="128" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V23">
+  <conditionalFormatting sqref="V29:V30">
     <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V8">
+  <conditionalFormatting sqref="V7">
     <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V29:V30">
+  <conditionalFormatting sqref="V24">
     <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V7">
+  <conditionalFormatting sqref="V34">
     <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V24">
+  <conditionalFormatting sqref="V5">
     <cfRule type="cellIs" dxfId="106" priority="123" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V34">
+  <conditionalFormatting sqref="V13">
     <cfRule type="cellIs" dxfId="105" priority="122" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V5">
+  <conditionalFormatting sqref="V12">
     <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V13">
+  <conditionalFormatting sqref="W15">
     <cfRule type="cellIs" dxfId="103" priority="120" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V12">
+  <conditionalFormatting sqref="W8">
     <cfRule type="cellIs" dxfId="102" priority="119" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
+  <conditionalFormatting sqref="W14">
     <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W8">
+  <conditionalFormatting sqref="W37">
     <cfRule type="cellIs" dxfId="100" priority="117" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W14">
+  <conditionalFormatting sqref="W23">
     <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W37">
+  <conditionalFormatting sqref="W11">
     <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W23">
+  <conditionalFormatting sqref="W38">
     <cfRule type="cellIs" dxfId="97" priority="114" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W11">
+  <conditionalFormatting sqref="W18">
     <cfRule type="cellIs" dxfId="96" priority="113" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W38">
+  <conditionalFormatting sqref="W16">
     <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
+  <conditionalFormatting sqref="W31">
     <cfRule type="cellIs" dxfId="94" priority="111" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W16">
+  <conditionalFormatting sqref="W34">
     <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
+  <conditionalFormatting sqref="W6">
     <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W34">
+  <conditionalFormatting sqref="V18">
     <cfRule type="cellIs" dxfId="91" priority="108" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W6">
+  <conditionalFormatting sqref="U14:V14">
     <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18">
+  <conditionalFormatting sqref="W32">
     <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:V14">
+  <conditionalFormatting sqref="W29">
     <cfRule type="cellIs" dxfId="88" priority="105" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
+  <conditionalFormatting sqref="W13">
     <cfRule type="cellIs" dxfId="87" priority="104" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
+  <conditionalFormatting sqref="W7">
     <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13">
+  <conditionalFormatting sqref="W21">
     <cfRule type="cellIs" dxfId="85" priority="102" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W7">
+  <conditionalFormatting sqref="W35">
     <cfRule type="cellIs" dxfId="84" priority="101" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W21">
+  <conditionalFormatting sqref="W24">
     <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W35">
+  <conditionalFormatting sqref="W19">
     <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24">
+  <conditionalFormatting sqref="W9">
     <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
+  <conditionalFormatting sqref="W26">
     <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W9">
+  <conditionalFormatting sqref="W36">
     <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26">
+  <conditionalFormatting sqref="W10">
     <cfRule type="cellIs" dxfId="78" priority="95" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W36">
+  <conditionalFormatting sqref="W5">
     <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="76" priority="93" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="75" priority="92" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="74" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="73" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="71" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
+    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W25">
+    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12">
     <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W25">
+  <conditionalFormatting sqref="X16">
     <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W12">
+  <conditionalFormatting sqref="X14">
     <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16">
+  <conditionalFormatting sqref="X9">
     <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X14">
+  <conditionalFormatting sqref="X8">
     <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X9">
+  <conditionalFormatting sqref="X13">
     <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X8">
+  <conditionalFormatting sqref="X6">
     <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
+  <conditionalFormatting sqref="X7">
     <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6">
+  <conditionalFormatting sqref="W30">
     <cfRule type="cellIs" dxfId="60" priority="58" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
+  <conditionalFormatting sqref="W20">
     <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
+  <conditionalFormatting sqref="W28">
     <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
+  <conditionalFormatting sqref="X36">
     <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
+  <conditionalFormatting sqref="X25">
     <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X36">
+  <conditionalFormatting sqref="X5">
     <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X25">
+  <conditionalFormatting sqref="X37">
     <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X5">
+  <conditionalFormatting sqref="X23">
     <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X37">
+  <conditionalFormatting sqref="X17">
     <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X23">
+  <conditionalFormatting sqref="X15">
     <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17">
+  <conditionalFormatting sqref="X18">
     <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X15">
+  <conditionalFormatting sqref="X34">
     <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X18">
+  <conditionalFormatting sqref="X30">
     <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X34">
+  <conditionalFormatting sqref="X29">
     <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X30">
+  <conditionalFormatting sqref="X11">
     <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X29">
+  <conditionalFormatting sqref="X19">
     <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X11">
+  <conditionalFormatting sqref="X38">
     <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
+  <conditionalFormatting sqref="Y31">
     <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X38">
+  <conditionalFormatting sqref="Y32">
     <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
+  <conditionalFormatting sqref="Y21">
     <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
+  <conditionalFormatting sqref="Y35">
     <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="39" priority="37" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y35">
-    <cfRule type="cellIs" dxfId="38" priority="36" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y36">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25">
     <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y36">
+  <conditionalFormatting sqref="Y5">
     <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y25">
+  <conditionalFormatting sqref="Y37">
     <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y5">
+  <conditionalFormatting sqref="Y23">
     <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y37">
+  <conditionalFormatting sqref="Y17">
     <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y23">
+  <conditionalFormatting sqref="Y15">
     <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y17">
+  <conditionalFormatting sqref="Y18">
     <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y34">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y30">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y19">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y38">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y8">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y16">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:Y38">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X31">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y18">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y34">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y30">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X32">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:Y38">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
-      <formula>$D$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>$A$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/演習/課題提出状況.xlsx
+++ b/演習/課題提出状況.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="166">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -708,42 +708,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="119">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="114">
     <dxf>
       <fill>
         <patternFill>
@@ -1845,10 +1810,10 @@
   <dimension ref="A1:AB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="N21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W42" sqref="W42"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2056,14 +2021,16 @@
         <v>134</v>
       </c>
       <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="X3" s="3" t="s">
         <v>134</v>
       </c>
       <c r="Y3" s="3"/>
       <c r="Z3">
         <f t="shared" ref="Z3:Z14" si="0">COUNTIF(E3:H3,"〇")+COUNTIF(J3:Q3,"〇")+COUNTIF(S3:T3,"〇")+COUNTIF(W3:X3,"〇")+COUNTIF(O3,"◎")</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA3">
         <f>COUNTIF(Y3,"〇")+COUNTIF(V3,"〇")+COUNTIF(R3,"〇")+COUNTIF(I3,"〇")</f>
@@ -5024,7 +4991,7 @@
       </c>
       <c r="W39" s="4">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X39" s="4">
         <f t="shared" ref="X39:Y39" si="10">COUNTIF(X3:X38,"〇")+COUNTIF(X3:X38,"◎")</f>
@@ -5114,7 +5081,7 @@
       </c>
       <c r="W40" s="6">
         <f t="shared" ref="W40:X40" si="18">W39/COUNTA($A$3:$A$256)</f>
-        <v>0.83333333333333337</v>
+        <v>0.86111111111111116</v>
       </c>
       <c r="X40" s="6">
         <f t="shared" si="18"/>
@@ -5132,557 +5099,562 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="E13:T14 E15:U38 E3:U12">
-    <cfRule type="cellIs" dxfId="118" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="136" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V38">
-    <cfRule type="cellIs" dxfId="117" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="135" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V36">
-    <cfRule type="cellIs" dxfId="116" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="134" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V16">
-    <cfRule type="cellIs" dxfId="115" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="133" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V21">
-    <cfRule type="cellIs" dxfId="114" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="132" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="113" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="131" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V23">
-    <cfRule type="cellIs" dxfId="112" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="130" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" dxfId="111" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="129" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V29:V30">
-    <cfRule type="cellIs" dxfId="110" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="128" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="127" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V24">
-    <cfRule type="cellIs" dxfId="108" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="126" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34">
-    <cfRule type="cellIs" dxfId="107" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="125" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="106" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="124" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V13">
-    <cfRule type="cellIs" dxfId="105" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="123" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="122" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="103" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="121" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W8">
-    <cfRule type="cellIs" dxfId="102" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="120" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="101" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="119" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37">
-    <cfRule type="cellIs" dxfId="100" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="118" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W23">
-    <cfRule type="cellIs" dxfId="99" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11">
-    <cfRule type="cellIs" dxfId="98" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="116" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W38">
-    <cfRule type="cellIs" dxfId="97" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="115" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18">
-    <cfRule type="cellIs" dxfId="96" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="114" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W16">
-    <cfRule type="cellIs" dxfId="95" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="113" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31">
-    <cfRule type="cellIs" dxfId="94" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="112" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34">
-    <cfRule type="cellIs" dxfId="93" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="111" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W6">
-    <cfRule type="cellIs" dxfId="92" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="110" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V18">
-    <cfRule type="cellIs" dxfId="91" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="109" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:V14">
-    <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="108" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32">
-    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="107" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29">
-    <cfRule type="cellIs" dxfId="88" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="106" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W13">
-    <cfRule type="cellIs" dxfId="87" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="105" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W7">
-    <cfRule type="cellIs" dxfId="86" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="104" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W21">
-    <cfRule type="cellIs" dxfId="85" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="103" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35">
-    <cfRule type="cellIs" dxfId="84" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="102" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W24">
-    <cfRule type="cellIs" dxfId="83" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="101" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W19">
-    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="100" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W9">
-    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="99" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26">
-    <cfRule type="cellIs" dxfId="80" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="98" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36">
-    <cfRule type="cellIs" dxfId="79" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="97" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W10">
-    <cfRule type="cellIs" dxfId="78" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="96" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W5">
-    <cfRule type="cellIs" dxfId="77" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="95" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="76" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="85" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="75" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="82" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X21">
-    <cfRule type="cellIs" dxfId="74" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="77" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="73" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X10">
-    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U13">
-    <cfRule type="cellIs" dxfId="70" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25">
-    <cfRule type="cellIs" dxfId="69" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="cellIs" dxfId="68" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="cellIs" dxfId="67" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X14">
-    <cfRule type="cellIs" dxfId="66" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X9">
-    <cfRule type="cellIs" dxfId="65" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X8">
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X6">
-    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30">
-    <cfRule type="cellIs" dxfId="60" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W20">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28">
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25">
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X5">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X37">
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X23">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17">
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18">
-    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X30">
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X29">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11">
-    <cfRule type="cellIs" dxfId="46" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19">
-    <cfRule type="cellIs" dxfId="45" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38">
-    <cfRule type="cellIs" dxfId="44" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y31">
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y21">
-    <cfRule type="cellIs" dxfId="41" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="cellIs" dxfId="40" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y26">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y10">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14">
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y9">
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y13">
-    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y7">
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36">
-    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y25">
-    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y5">
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y23">
-    <cfRule type="cellIs" dxfId="29" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y17">
-    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y18">
-    <cfRule type="cellIs" dxfId="26" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y30">
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y29">
-    <cfRule type="cellIs" dxfId="23" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11">
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y19">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y6">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y8">
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y16">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:Y38">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X31">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X3">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y15">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X26">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$A$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$A$1</formula>
     </cfRule>
   </conditionalFormatting>
